--- a/dataTools/excelData/event/event.xlsx
+++ b/dataTools/excelData/event/event.xlsx
@@ -32,6 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -41,13 +42,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0.弹出对话
 1.直接奖励
 2.传送
-3.解锁故事</t>
+3.解锁故事
+4.对话选择
+5.打开panel
+6.给钱
+7.获得传闻
+8.打开展示背包</t>
         </r>
       </text>
     </comment>
@@ -56,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -81,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip,10101,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,9,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,7 +120,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npc,InfoBoard,Story_1_1;RejecStory_1</t>
+    <t>Merchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenShop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant,MerchantIntro,LetMeLook.Byebye,10006.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPanelShop,UpdateShopItem,20001.20002.20003.20004.20005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,10003,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoleNotes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoleTalk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mole,NeedLock,HelpHim.DontHelp,10010.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mole,MoleThanks;equip,10101,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfoBoard,Story_1_1;RejecStory_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,6 +206,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -158,6 +214,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -466,16 +523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
@@ -496,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -510,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -518,13 +575,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -533,13 +590,13 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,13 +604,13 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -561,18 +618,109 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dataTools/excelData/event/event.xlsx
+++ b/dataTools/excelData/event/event.xlsx
@@ -54,7 +54,8 @@
 5.打开panel
 6.给钱
 7.获得传闻
-8.打开展示背包</t>
+8.打开展示背包
+9.战斗</t>
         </r>
       </text>
     </comment>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -173,6 +174,18 @@
   </si>
   <si>
     <t>InfoBoard,Story_1_1;RejecStory_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrogTalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightInvoker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frog,WannaFight,DoFight.DontFight,10013.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,6 +735,34 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>20001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/event/event.xlsx
+++ b/dataTools/excelData/event/event.xlsx
@@ -55,7 +55,8 @@
 6.给钱
 7.获得传闻
 8.打开展示背包
-9.战斗</t>
+9.战斗
+10.解锁角色</t>
         </r>
       </text>
     </comment>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -181,11 +182,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FightInvoker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frog,WannaFight,DoFight.DontFight,10013.0</t>
+    <t>Frog,WannaFight,DoFight.DontFight,0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightFrog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EchoJoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -754,13 +759,27 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
         <v>20001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10002</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/event/event.xlsx
+++ b/dataTools/excelData/event/event.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -170,27 +170,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>InfoBoard,Story_1_1;RejecStory_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrogTalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frog,WannaFight,DoFight.DontFight,0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightFrog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRibbon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Mole,MoleThanks;equip,10101,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InfoBoard,Story_1_1;RejecStory_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrogTalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frog,WannaFight,DoFight.DontFight,0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FightFrog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EchoJoin</t>
+    <t>equip,40201,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChloeJoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FoxSay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fox,YouWantChloe,IWantChloe.Byebye,10016.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时结束的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENDEVENTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,16 +565,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
@@ -573,6 +598,9 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -586,6 +614,9 @@
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -601,7 +632,9 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -616,6 +649,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -630,6 +666,9 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -642,7 +681,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -658,6 +700,9 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -672,6 +717,9 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -686,6 +734,9 @@
       <c r="D9">
         <v>99999999</v>
       </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -700,6 +751,9 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -714,6 +768,9 @@
       <c r="D11">
         <v>10001</v>
       </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -725,6 +782,9 @@
       <c r="C12">
         <v>8</v>
       </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -737,7 +797,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -745,13 +808,16 @@
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,13 +825,16 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
         <v>20001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -773,13 +842,50 @@
         <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>10002</v>
+      <c r="D18">
+        <v>10004</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10014</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/event/event.xlsx
+++ b/dataTools/excelData/event/event.xlsx
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Merchant,MerchantIntro,LetMeLook.Byebye,10006.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +211,10 @@
   </si>
   <si>
     <t>ENDEVENTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant,MerchantIntro,LetMeLook.SellSomething.Byebye,10006.10010.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +568,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,13 +624,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -743,13 +743,13 @@
         <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -777,7 +777,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -794,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -808,13 +808,13 @@
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -842,13 +842,13 @@
         <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>10015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>10016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>10</v>

--- a/dataTools/excelData/event/event.xlsx
+++ b/dataTools/excelData/event/event.xlsx
@@ -56,7 +56,8 @@
 7.获得传闻
 8.打开展示背包
 9.战斗
-10.解锁角色</t>
+10.解锁角色
+11.出售物品</t>
         </r>
       </text>
     </comment>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -158,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OpenBag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0;1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,7 +211,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Merchant,MerchantIntro,LetMeLook.SellSomething.Byebye,10006.10010.0</t>
+    <t>ShowItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant,MerchantIntro,LetMeLook.SellSomething.Byebye,10006.10017.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -681,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -698,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -777,7 +782,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -794,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -808,13 +813,13 @@
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -825,7 +830,7 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -842,13 +847,13 @@
         <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -859,13 +864,13 @@
         <v>10015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -876,7 +881,7 @@
         <v>10016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -886,6 +891,20 @@
       </c>
       <c r="E18" s="1">
         <v>10014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/event/event.xlsx
+++ b/dataTools/excelData/event/event.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UIPanelShop,UpdateShopItem,20001.20002.20003.20004.20005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GetLock</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -220,6 +216,34 @@
   </si>
   <si>
     <t>Merchant,MerchantIntro,LetMeLook.SellSomething.Byebye,10006.10017.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackSmith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmithShop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPanelShop,UpdateShopItem,20001.20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPanelShop,UpdateShopItem,20003.20004.20005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenForge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPanelForge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackSmith,BlackSmithIntro,ForgeSomething.BuySomething.Byebye,10020.10019.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,13 +653,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -686,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -703,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -720,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -748,13 +772,13 @@
         <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -765,7 +789,7 @@
         <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -782,7 +806,7 @@
         <v>10010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -799,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -813,13 +837,13 @@
         <v>10012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -830,7 +854,7 @@
         <v>10013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -847,13 +871,13 @@
         <v>10014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -864,13 +888,13 @@
         <v>10015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -881,7 +905,7 @@
         <v>10016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -898,12 +922,63 @@
         <v>10017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>11</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>10020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
     </row>
